--- a/EpicIssue登録シート.xlsx
+++ b/EpicIssue登録シート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiz\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wiz\Documents\22310046-tokumotoanna\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E84FFC-A8C6-4079-B3C9-97893FBBBD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FFF4FF-59B1-4D35-A515-C5A1D56EF703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" activeTab="1" xr2:uid="{C4078BB4-6FFD-4BFB-91C3-FA46D374F307}"/>
+    <workbookView xWindow="8070" yWindow="2030" windowWidth="15790" windowHeight="12370" activeTab="1" xr2:uid="{C4078BB4-6FFD-4BFB-91C3-FA46D374F307}"/>
   </bookViews>
   <sheets>
     <sheet name="Epic" sheetId="1" r:id="rId1"/>
@@ -5394,7 +5394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51119975-F063-49DA-86C4-3DADE6EBE383}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -9786,21 +9786,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100607CFEA9279ED04E9D3ED0C5CB906D80" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="512ecd7edbafcd1ebf62fbb9f6d3da71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d287decf-c884-4834-8617-a14e3ef844bb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54e415c3962f1bffb5891f93df98a945" ns2:_="">
     <xsd:import namespace="d287decf-c884-4834-8617-a14e3ef844bb"/>
@@ -9956,32 +9941,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA019F2B-1C99-48FB-A713-D14B108C9088}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="9d4cf5f4-5438-4101-9e44-97a4110666d9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="f44841fa-d4ab-482a-b027-5b912c0b6846"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A21B62CC-D32E-44A9-8D10-06185334D0E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29FD5739-ABD1-4CAB-9F6E-D6FA0906FE1C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9997,4 +9972,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A21B62CC-D32E-44A9-8D10-06185334D0E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA019F2B-1C99-48FB-A713-D14B108C9088}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="9d4cf5f4-5438-4101-9e44-97a4110666d9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="f44841fa-d4ab-482a-b027-5b912c0b6846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>